--- a/doc/Training Board.xlsx
+++ b/doc/Training Board.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Temp\konva\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Temp\konva\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A388631-4373-434E-9308-50AF83FEC0E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FF208E-1C41-41B5-A963-9EEB0B92F97A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40170" yWindow="2070" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39540" yWindow="1365" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>L1</t>
     <phoneticPr fontId="1"/>
@@ -55,26 +55,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>L7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LGaba</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>L38mm</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -83,10 +63,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RGaba</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>R38mm</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -96,6 +72,22 @@
   </si>
   <si>
     <t>CR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LGaba1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LGaba2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RGaba2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RGaba1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -119,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +136,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -235,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -246,12 +244,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -532,19 +531,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y31"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="25" width="4" customWidth="1"/>
-    <col min="26" max="37" width="9" customWidth="1"/>
+    <col min="1" max="24" width="4" customWidth="1"/>
+    <col min="25" max="36" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:24">
       <c r="A1">
         <v>0</v>
       </c>
@@ -617,50 +616,47 @@
       <c r="X1">
         <v>460</v>
       </c>
-      <c r="Y1">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="U2" s="1"/>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="U3" s="2"/>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>40</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>60</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="U5" s="2"/>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>80</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="U6" s="1"/>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>100</v>
       </c>
@@ -668,44 +664,47 @@
         <v>2</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="2"/>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="T7" s="1"/>
+      <c r="U7" s="2"/>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8">
         <v>120</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="U8" s="1"/>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>140</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="G9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="8"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="N9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="8"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="R9" s="8"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="2"/>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Q9" s="1"/>
+      <c r="R9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="8"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>160</v>
       </c>
@@ -724,34 +723,32 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-    </row>
-    <row r="11" spans="1:25">
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11">
         <v>180</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="10"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R11" s="8"/>
-      <c r="S11" s="9"/>
+      <c r="P11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-    </row>
-    <row r="12" spans="1:25">
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12">
         <v>200</v>
       </c>
@@ -770,34 +767,32 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-    </row>
-    <row r="13" spans="1:25">
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13">
         <v>220</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="9"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="11"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="R13" s="8"/>
-      <c r="S13" s="9"/>
+      <c r="P13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-    </row>
-    <row r="14" spans="1:25">
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14">
         <v>240</v>
       </c>
@@ -819,140 +814,139 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="2"/>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="U14" s="2"/>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15">
         <v>260</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="U15" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="T15" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16">
         <v>280</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U16" s="2"/>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17">
         <v>300</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="U17" s="1"/>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18">
         <v>320</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="U18" s="1"/>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19">
         <v>340</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="U19" s="1"/>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20">
         <v>360</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="U20" s="1"/>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21">
         <v>380</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="U21" s="3"/>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="T21" s="3"/>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22">
         <v>400</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="U22" s="3"/>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="T22" s="3"/>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23">
         <v>420</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="F23" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24">
         <v>440</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="U24" s="4"/>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="T24" s="4"/>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25">
         <v>460</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="U25" s="1"/>
-    </row>
-    <row r="26" spans="1:25">
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26">
         <v>480</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="U26" s="1"/>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27">
         <v>500</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="U27" s="3"/>
-    </row>
-    <row r="28" spans="1:25">
+      <c r="T27" s="3"/>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28">
         <v>520</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="U28" s="3"/>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="T28" s="3"/>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29">
         <v>540</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-    </row>
-    <row r="30" spans="1:25">
+      <c r="F29" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30">
         <v>560</v>
       </c>
       <c r="F30" s="4"/>
-      <c r="U30" s="4"/>
-    </row>
-    <row r="31" spans="1:25">
+      <c r="T30" s="4"/>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31">
         <v>0</v>
       </c>
@@ -990,53 +984,50 @@
         <v>220</v>
       </c>
       <c r="M31">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="N31">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="O31">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="P31">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="Q31">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="R31">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="S31">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="T31">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="U31">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="V31">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="W31">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="X31">
-        <v>460</v>
-      </c>
-      <c r="Y31">
         <v>480</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P13:Q13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
